--- a/Business Logic/Test Case.xlsx
+++ b/Business Logic/Test Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Habit" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>Tên</t>
   </si>
@@ -65,13 +65,109 @@
   </si>
   <si>
     <t>Dậy 4h</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Công việc &amp; học tập</t>
+  </si>
+  <si>
+    <t>Tài chính</t>
+  </si>
+  <si>
+    <t>Mối quan hệ</t>
+  </si>
+  <si>
+    <t>Tinh thần</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>Tên thói quen</t>
+  </si>
+  <si>
+    <t>Tổng đã tạo</t>
+  </si>
+  <si>
+    <t>Tổng track</t>
+  </si>
+  <si>
+    <t>Thành công</t>
+  </si>
+  <si>
+    <t>Phần trăm</t>
+  </si>
+  <si>
+    <t>Dậy sớm</t>
+  </si>
+  <si>
+    <t>Ngủ dậy sớm</t>
+  </si>
+  <si>
+    <t>Dậy trước 6h sáng</t>
+  </si>
+  <si>
+    <t>Dậy trước 7h sáng</t>
+  </si>
+  <si>
+    <t>Dậy 4h sáng</t>
+  </si>
+  <si>
+    <t>Đánh răng buổi tối</t>
+  </si>
+  <si>
+    <t>Dễ</t>
+  </si>
+  <si>
+    <t>Tập gym</t>
+  </si>
+  <si>
+    <t>Đá bóng</t>
+  </si>
+  <si>
+    <t>Ngủ sớm</t>
+  </si>
+  <si>
+    <t>Ăn đúng bữa</t>
+  </si>
+  <si>
+    <t>Không ăn đồ ngọt</t>
+  </si>
+  <si>
+    <t>Bỏ thuốc</t>
+  </si>
+  <si>
+    <t>Bỏ rượu</t>
+  </si>
+  <si>
+    <t>Khó</t>
+  </si>
+  <si>
+    <t>Trung bình</t>
+  </si>
+  <si>
+    <t>Đọc sách</t>
+  </si>
+  <si>
+    <t>Học 10 từ vựng</t>
+  </si>
+  <si>
+    <t>Ghi chép chi tiêu</t>
+  </si>
+  <si>
+    <t>Gọi điện cho ông bà</t>
+  </si>
+  <si>
+    <t>Gửi tiền cho bố mẹ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +178,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -105,15 +223,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -393,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -485,12 +620,410 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4587</v>
+      </c>
+      <c r="I4" s="2">
+        <v>20978</v>
+      </c>
+      <c r="J4" s="2">
+        <v>18256</v>
+      </c>
+      <c r="K4" s="3">
+        <f>J4/I4</f>
+        <v>0.87024501859090475</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2317</v>
+      </c>
+      <c r="I5" s="2">
+        <v>8651</v>
+      </c>
+      <c r="J5" s="2">
+        <v>6525</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" ref="K5:K23" si="0">J5/I5</f>
+        <v>0.7542480638076523</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4587</v>
+      </c>
+      <c r="I6" s="2">
+        <v>20978</v>
+      </c>
+      <c r="J6" s="2">
+        <v>15328</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.73067022595099629</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3214</v>
+      </c>
+      <c r="I7" s="2">
+        <v>9043</v>
+      </c>
+      <c r="J7" s="2">
+        <v>8215</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90843746544288395</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4587</v>
+      </c>
+      <c r="I8" s="2">
+        <v>10562</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1245</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11787540238591177</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="E16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="K19" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="F20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="F21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="F22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="K23" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Business Logic/Test Case.xlsx
+++ b/Business Logic/Test Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Habit" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>Tên</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Bỏ thuốc</t>
   </si>
   <si>
-    <t>Bỏ rượu</t>
-  </si>
-  <si>
     <t>Khó</t>
   </si>
   <si>
@@ -161,6 +158,30 @@
   </si>
   <si>
     <t>Gửi tiền cho bố mẹ</t>
+  </si>
+  <si>
+    <t>Bỏ nhậu</t>
+  </si>
+  <si>
+    <t>Dọn dẹp nhà cửa</t>
+  </si>
+  <si>
+    <t>Uống 2 lít nước</t>
+  </si>
+  <si>
+    <t>Gửi tiền tiết kiệm</t>
+  </si>
+  <si>
+    <t>Đưa gia đình đi du lịch</t>
+  </si>
+  <si>
+    <t>Dẫn con đi chơi</t>
+  </si>
+  <si>
+    <t>Tập guitar</t>
+  </si>
+  <si>
+    <t>Về ăn tối với vợ con</t>
   </si>
 </sst>
 </file>
@@ -236,10 +257,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -620,10 +641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K23"/>
+  <dimension ref="B3:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -640,28 +661,28 @@
     <col min="11" max="11" width="12.3984375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:11" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -703,7 +724,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>27</v>
@@ -721,7 +742,7 @@
         <v>6525</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" ref="K5:K23" si="0">J5/I5</f>
+        <f t="shared" ref="K5:K38" si="0">J5/I5</f>
         <v>0.7542480638076523</v>
       </c>
     </row>
@@ -733,7 +754,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>28</v>
@@ -793,7 +814,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>30</v>
@@ -831,14 +852,23 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="K9" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H9" s="2">
+        <v>3145</v>
+      </c>
+      <c r="I9" s="2">
+        <v>9246</v>
+      </c>
+      <c r="J9" s="2">
+        <v>7428</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.80337443218689164</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>7</v>
@@ -846,14 +876,23 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H10" s="2">
+        <v>5282</v>
+      </c>
+      <c r="I10" s="2">
+        <v>21425</v>
+      </c>
+      <c r="J10" s="2">
+        <v>15211</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.70996499416569425</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.45">
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>33</v>
@@ -861,9 +900,18 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="K11" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H11" s="2">
+        <v>3145</v>
+      </c>
+      <c r="I11" s="2">
+        <v>15262</v>
+      </c>
+      <c r="J11" s="2">
+        <v>11271</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.73850085178875635</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.45">
@@ -876,9 +924,18 @@
       <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="K12" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H12" s="2">
+        <v>1212</v>
+      </c>
+      <c r="I12" s="2">
+        <v>7215</v>
+      </c>
+      <c r="J12" s="2">
+        <v>6135</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8503118503118503</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.45">
@@ -891,14 +948,23 @@
       <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="K13" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H13" s="2">
+        <v>3265</v>
+      </c>
+      <c r="I13" s="2">
+        <v>9181</v>
+      </c>
+      <c r="J13" s="2">
+        <v>7615</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.82943034527829218</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.45">
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>36</v>
@@ -906,14 +972,23 @@
       <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="K14" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H14" s="2">
+        <v>514</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4123</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2451</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59447004608294929</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>37</v>
@@ -921,14 +996,23 @@
       <c r="G15" s="2">
         <v>1</v>
       </c>
-      <c r="K15" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H15" s="2">
+        <v>2157</v>
+      </c>
+      <c r="I15" s="2">
+        <v>7251</v>
+      </c>
+      <c r="J15" s="2">
+        <v>4125</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.56888705006206042</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>38</v>
@@ -936,39 +1020,66 @@
       <c r="G16" s="2">
         <v>1</v>
       </c>
-      <c r="K16" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H16" s="2">
+        <v>4128</v>
+      </c>
+      <c r="I16" s="2">
+        <v>15125</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3156</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20866115702479338</v>
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
-      <c r="K17" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H17" s="2">
+        <v>2152</v>
+      </c>
+      <c r="I17" s="2">
+        <v>8152</v>
+      </c>
+      <c r="J17" s="2">
+        <v>3215</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.39438174681059862</v>
       </c>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="G18" s="2">
         <v>2</v>
       </c>
-      <c r="K18" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H18" s="2">
+        <v>5125</v>
+      </c>
+      <c r="I18" s="2">
+        <v>17289</v>
+      </c>
+      <c r="J18" s="2">
+        <v>16121</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93244259355659664</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.45">
@@ -976,45 +1087,315 @@
         <v>32</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="2">
         <v>2</v>
       </c>
-      <c r="K19" s="3" t="e">
+      <c r="H19" s="2">
+        <v>817</v>
+      </c>
+      <c r="I19" s="2">
+        <v>4162</v>
+      </c>
+      <c r="J19" s="2">
+        <v>3516</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.84478616049975974</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1425</v>
+      </c>
+      <c r="I20" s="2">
+        <v>6127</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5145</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.83972580381916107</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="2">
+        <v>5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>512</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2514</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1523</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.6058074781225139</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2">
+        <v>58</v>
+      </c>
+      <c r="I22" s="2">
+        <v>728</v>
+      </c>
+      <c r="J22" s="2">
+        <v>69</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="0"/>
+        <v>9.4780219780219777E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="2">
+        <v>4</v>
+      </c>
+      <c r="H23" s="2">
+        <v>875</v>
+      </c>
+      <c r="I23" s="2">
+        <v>6576</v>
+      </c>
+      <c r="J23" s="2">
+        <v>4234</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.64385644768856443</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1763</v>
+      </c>
+      <c r="I24" s="2">
+        <v>8165</v>
+      </c>
+      <c r="J24" s="2">
+        <v>5424</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.6642988364972443</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3514</v>
+      </c>
+      <c r="I25" s="2">
+        <v>14278</v>
+      </c>
+      <c r="J25" s="2">
+        <v>10142</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.71032357473035435</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4</v>
+      </c>
+      <c r="H26" s="2">
+        <v>765</v>
+      </c>
+      <c r="I26" s="2">
+        <v>5125</v>
+      </c>
+      <c r="J26" s="2">
+        <v>4721</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92117073170731711</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4</v>
+      </c>
+      <c r="H27" s="2">
+        <v>524</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2576</v>
+      </c>
+      <c r="J27" s="2">
+        <v>452</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17546583850931677</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4</v>
+      </c>
+      <c r="H28" s="2">
+        <v>245</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1756</v>
+      </c>
+      <c r="J28" s="2">
+        <v>345</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19646924829157175</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2">
+        <v>236</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2678</v>
+      </c>
+      <c r="J29" s="2">
+        <v>467</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17438386855862584</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="K30" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="F20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="3" t="e">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="K31" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="F21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="3" t="e">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="K32" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="F22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="3" t="e">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K33" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="K23" s="3" t="e">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K34" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K35" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K36" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K37" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K38" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
